--- a/biology/Botanique/Cynoglossum/Cynoglossum.xlsx
+++ b/biology/Botanique/Cynoglossum/Cynoglossum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre des cynoglosses (Cynoglossum) regroupe des plantes herbacées de la famille des Boraginacées. Certaines espèces sont appelées "Langue de chien" (du grec cyno, chien et glossum, langue) et produisent des cymes de petites fleurs bleu azur ressemblant à celles du myosotis.
 La racine de cynoglosse était anciennement connue comme tempérante et narcotique.
@@ -512,7 +524,9 @@
           <t>Principales espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Cynoglossum amabile
